--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H2">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I2">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J2">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.237097333333333</v>
+        <v>1.467117666666667</v>
       </c>
       <c r="N2">
-        <v>3.711292</v>
+        <v>4.401353</v>
       </c>
       <c r="O2">
-        <v>0.1496639399539542</v>
+        <v>0.2087313363221112</v>
       </c>
       <c r="P2">
-        <v>0.1496639399539542</v>
+        <v>0.2087313363221112</v>
       </c>
       <c r="Q2">
-        <v>1.151197418164444</v>
+        <v>2.413007060465223</v>
       </c>
       <c r="R2">
-        <v>10.36077676348</v>
+        <v>21.717063544187</v>
       </c>
       <c r="S2">
-        <v>0.00264722155352128</v>
+        <v>0.006438027010270168</v>
       </c>
       <c r="T2">
-        <v>0.00264722155352128</v>
+        <v>0.006438027010270168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H3">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I3">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J3">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.467117666666667</v>
+        <v>5.561619333333333</v>
       </c>
       <c r="N3">
-        <v>4.401353</v>
+        <v>16.684858</v>
       </c>
       <c r="O3">
-        <v>0.1774917821362901</v>
+        <v>0.7912686636778888</v>
       </c>
       <c r="P3">
-        <v>0.1774917821362901</v>
+        <v>0.7912686636778888</v>
       </c>
       <c r="Q3">
-        <v>1.365245906285556</v>
+        <v>9.147341773509112</v>
       </c>
       <c r="R3">
-        <v>12.28721315657</v>
+        <v>82.32607596158199</v>
       </c>
       <c r="S3">
-        <v>0.003139434064001309</v>
+        <v>0.02440557857243495</v>
       </c>
       <c r="T3">
-        <v>0.003139434064001309</v>
+        <v>0.02440557857243495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9305633333333333</v>
+        <v>44.154177</v>
       </c>
       <c r="H4">
-        <v>2.79169</v>
+        <v>132.462531</v>
       </c>
       <c r="I4">
-        <v>0.01768777137856805</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J4">
-        <v>0.01768777137856806</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.561619333333333</v>
+        <v>1.467117666666667</v>
       </c>
       <c r="N4">
-        <v>16.684858</v>
+        <v>4.401353</v>
       </c>
       <c r="O4">
-        <v>0.6728442779097557</v>
+        <v>0.2087313363221112</v>
       </c>
       <c r="P4">
-        <v>0.6728442779097557</v>
+        <v>0.2087313363221112</v>
       </c>
       <c r="Q4">
-        <v>5.175439025557777</v>
+        <v>64.77937313382701</v>
       </c>
       <c r="R4">
-        <v>46.57895123002</v>
+        <v>583.0143582044431</v>
       </c>
       <c r="S4">
-        <v>0.01190111576104546</v>
+        <v>0.1728347010570045</v>
       </c>
       <c r="T4">
-        <v>0.01190111576104547</v>
+        <v>0.1728347010570045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>132.462531</v>
       </c>
       <c r="I5">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J5">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.237097333333333</v>
+        <v>5.561619333333333</v>
       </c>
       <c r="N5">
-        <v>3.711292</v>
+        <v>16.684858</v>
       </c>
       <c r="O5">
-        <v>0.1496639399539542</v>
+        <v>0.7912686636778888</v>
       </c>
       <c r="P5">
-        <v>0.1496639399539542</v>
+        <v>0.7912686636778888</v>
       </c>
       <c r="Q5">
-        <v>54.62301462222801</v>
+        <v>245.568724450622</v>
       </c>
       <c r="R5">
-        <v>491.607131600052</v>
+        <v>2210.118520055598</v>
       </c>
       <c r="S5">
-        <v>0.1256076667169996</v>
+        <v>0.6551899937606845</v>
       </c>
       <c r="T5">
-        <v>0.1256076667169997</v>
+        <v>0.6551899937606845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.154177</v>
+        <v>7.525807</v>
       </c>
       <c r="H6">
-        <v>132.462531</v>
+        <v>22.577421</v>
       </c>
       <c r="I6">
-        <v>0.8392647337471152</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J6">
-        <v>0.8392647337471153</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>4.401353</v>
       </c>
       <c r="O6">
-        <v>0.1774917821362901</v>
+        <v>0.2087313363221112</v>
       </c>
       <c r="P6">
-        <v>0.1774917821362901</v>
+        <v>0.2087313363221112</v>
       </c>
       <c r="Q6">
-        <v>64.77937313382701</v>
+        <v>11.04124440562367</v>
       </c>
       <c r="R6">
-        <v>583.0143582044431</v>
+        <v>99.37119965061301</v>
       </c>
       <c r="S6">
-        <v>0.1489625932769145</v>
+        <v>0.0294586082548365</v>
       </c>
       <c r="T6">
-        <v>0.1489625932769145</v>
+        <v>0.0294586082548365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.154177</v>
+        <v>7.525807</v>
       </c>
       <c r="H7">
-        <v>132.462531</v>
+        <v>22.577421</v>
       </c>
       <c r="I7">
-        <v>0.8392647337471152</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J7">
-        <v>0.8392647337471153</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>16.684858</v>
       </c>
       <c r="O7">
-        <v>0.6728442779097557</v>
+        <v>0.7912686636778888</v>
       </c>
       <c r="P7">
-        <v>0.6728442779097557</v>
+        <v>0.7912686636778888</v>
       </c>
       <c r="Q7">
-        <v>245.568724450622</v>
+        <v>41.85567371013533</v>
       </c>
       <c r="R7">
-        <v>2210.118520055598</v>
+        <v>376.701063391218</v>
       </c>
       <c r="S7">
-        <v>0.564694473753201</v>
+        <v>0.1116730913447694</v>
       </c>
       <c r="T7">
-        <v>0.5646944737532011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.525807</v>
-      </c>
-      <c r="H8">
-        <v>22.577421</v>
-      </c>
-      <c r="I8">
-        <v>0.1430474948743168</v>
-      </c>
-      <c r="J8">
-        <v>0.1430474948743168</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>1.237097333333333</v>
-      </c>
-      <c r="N8">
-        <v>3.711292</v>
-      </c>
-      <c r="O8">
-        <v>0.1496639399539542</v>
-      </c>
-      <c r="P8">
-        <v>0.1496639399539542</v>
-      </c>
-      <c r="Q8">
-        <v>9.310155770881334</v>
-      </c>
-      <c r="R8">
-        <v>83.79140193793199</v>
-      </c>
-      <c r="S8">
-        <v>0.02140905168343333</v>
-      </c>
-      <c r="T8">
-        <v>0.02140905168343333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.525807</v>
-      </c>
-      <c r="H9">
-        <v>22.577421</v>
-      </c>
-      <c r="I9">
-        <v>0.1430474948743168</v>
-      </c>
-      <c r="J9">
-        <v>0.1430474948743168</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.467117666666667</v>
-      </c>
-      <c r="N9">
-        <v>4.401353</v>
-      </c>
-      <c r="O9">
-        <v>0.1774917821362901</v>
-      </c>
-      <c r="P9">
-        <v>0.1774917821362901</v>
-      </c>
-      <c r="Q9">
-        <v>11.04124440562367</v>
-      </c>
-      <c r="R9">
-        <v>99.37119965061301</v>
-      </c>
-      <c r="S9">
-        <v>0.02538975479537432</v>
-      </c>
-      <c r="T9">
-        <v>0.02538975479537431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7.525807</v>
-      </c>
-      <c r="H10">
-        <v>22.577421</v>
-      </c>
-      <c r="I10">
-        <v>0.1430474948743168</v>
-      </c>
-      <c r="J10">
-        <v>0.1430474948743168</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.561619333333333</v>
-      </c>
-      <c r="N10">
-        <v>16.684858</v>
-      </c>
-      <c r="O10">
-        <v>0.6728442779097557</v>
-      </c>
-      <c r="P10">
-        <v>0.6728442779097557</v>
-      </c>
-      <c r="Q10">
-        <v>41.85567371013533</v>
-      </c>
-      <c r="R10">
-        <v>376.701063391218</v>
-      </c>
-      <c r="S10">
-        <v>0.09624868839550915</v>
-      </c>
-      <c r="T10">
-        <v>0.09624868839550915</v>
+        <v>0.1116730913447694</v>
       </c>
     </row>
   </sheetData>
